--- a/Reports/MarketBeatRank/2019/T_INV19_LARGE/BMY.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_LARGE/BMY.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/MarketBeatRank/2019/T_INV19_LARGE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B1ED8-E9C9-A644-A365-FD243D5D215D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{311B1ED8-E9C9-A644-A365-FD243D5D215D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19480" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="2019" sheetId="1" r:id="rId1"/>
+    <sheet name="2019" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5688" uniqueCount="51">
   <si>
     <t>Apr_21</t>
   </si>
@@ -143,12 +143,43 @@
   </si>
   <si>
     <t>Jun_09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Jun_16</t>
+  </si>
+  <si>
+    <t>Jun_24</t>
+  </si>
+  <si>
+    <t>Jun_30</t>
+  </si>
+  <si>
+    <t>Jul_07</t>
+  </si>
+  <si>
+    <t>Jul_17</t>
+  </si>
+  <si>
+    <t>Jul_23</t>
+  </si>
+  <si>
+    <t>Aug_04</t>
+  </si>
+  <si>
+    <t>Aug_25</t>
+  </si>
+  <si>
+    <t>Sep_08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,18 +212,306 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="291">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -209,10 +528,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -247,7 +566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -299,7 +618,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -410,21 +729,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -441,7 +760,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -493,14 +812,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -509,27 +828,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="8" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="51.83203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -540,16 +896,43 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -560,16 +943,43 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -580,16 +990,43 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -600,16 +1037,43 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -620,16 +1084,43 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -640,16 +1131,43 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -660,16 +1178,43 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -680,16 +1225,43 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="C9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -700,16 +1272,43 @@
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -720,16 +1319,43 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="M11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -740,16 +1366,43 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -760,16 +1413,43 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -780,16 +1460,43 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -800,16 +1507,43 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -820,16 +1554,43 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -840,16 +1601,43 @@
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="M17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -860,16 +1648,43 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -880,16 +1695,43 @@
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -900,16 +1742,43 @@
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="C20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -920,16 +1789,43 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="C21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -940,16 +1836,43 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -960,16 +1883,43 @@
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="C23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -980,16 +1930,43 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1000,16 +1977,43 @@
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="C25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1020,16 +2024,43 @@
       <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="C26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1040,16 +2071,43 @@
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="M27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1060,16 +2118,43 @@
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="C28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1080,16 +2165,43 @@
       <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1100,16 +2212,43 @@
       <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="C30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1120,16 +2259,43 @@
       <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="C31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1140,6 +2306,33 @@
       <c r="B32" t="s">
         <v>2</v>
       </c>
+      <c r="C32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1148,8 +2341,35 @@
       <c r="B33" t="s">
         <v>2</v>
       </c>
+      <c r="C33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>